--- a/Submissions/submission_file.xlsx
+++ b/Submissions/submission_file.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A345"/>
+  <dimension ref="A1:A401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,1722 +442,2002 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>215.9829764320068</v>
+        <v>206.8474616413</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>202.1290100454698</v>
+        <v>200.0566853996</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>249.7560671127104</v>
+        <v>215.9051087807</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>247.9863154614247</v>
+        <v>212.1287808653</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>224.1442977035845</v>
+        <v>270.6253871788</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>238.5424910948167</v>
+        <v>221.0352060501</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103.151192171561</v>
+        <v>93.2118810043</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>211.2961916964737</v>
+        <v>226.3766990908</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>188.5715710423627</v>
+        <v>197.7377343101999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>197.4430291631802</v>
+        <v>196.2619120449999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>223.1126730187995</v>
+        <v>248.1615743554</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>223.4392856504881</v>
+        <v>225.4624607532</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>98.89745294392534</v>
+        <v>78.30142372218997</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>183.4899902375483</v>
+        <v>207.1496034274099</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>274.2718485044753</v>
+        <v>190.8752719168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>165.2000977079356</v>
+        <v>166.8935487527999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>77.13615924018993</v>
+        <v>76.32859589778002</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>219.3818042584453</v>
+        <v>263.3060647108001</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>205.0504181050083</v>
+        <v>141.01409251816</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>374.5462472256993</v>
+        <v>256.6606049588</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>96.50803175606161</v>
+        <v>86.22160231849999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>392.7884448895999</v>
+        <v>250.1468094867</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>442.8768516269364</v>
+        <v>253.7300378529998</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>370.1383444518594</v>
+        <v>235.6132944112001</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>379.311249889131</v>
+        <v>285.4670856686</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>170.6942496778858</v>
+        <v>110.9011852007</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>166.8085812637081</v>
+        <v>212.9627929141</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>436.0648634254233</v>
+        <v>313.275263523</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>390.0051185883984</v>
+        <v>279.1484759589999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>372.3196802231192</v>
+        <v>298.3075562875</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>269.579579702153</v>
+        <v>210.1372224928</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>193.0009602280675</v>
+        <v>157.4264169114</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>177.5852096459479</v>
+        <v>179.1676037207999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>172.3433090102205</v>
+        <v>158.8694623029</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>251.8793838250969</v>
+        <v>310.6736939132</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>331.4116840277253</v>
+        <v>236.740356</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>191.6733913893255</v>
+        <v>215.8768677082</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>250.2604781338233</v>
+        <v>246.3482863010999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>267.2119714530829</v>
+        <v>263.8444881052999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>413.1771453467192</v>
+        <v>309.5650226210001</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>394.6882944541556</v>
+        <v>356.8906596412999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>396.3851820889856</v>
+        <v>410.0627630370002</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>590.7263504321999</v>
+        <v>362.4137911521003</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>494.2095339019192</v>
+        <v>357.1877290443002</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>510.2402053774525</v>
+        <v>335.0062392832001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>387.1368506038539</v>
+        <v>337.2595498433</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>358.7916115244452</v>
+        <v>408.9919570160001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>452.5870952169398</v>
+        <v>341.6843668100001</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>392.8313933894493</v>
+        <v>292.1343165889</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>432.234337940291</v>
+        <v>378.4098977390001</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>393.0302251090227</v>
+        <v>348.5215157300001</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>342.4805128958068</v>
+        <v>418.0349822306001</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>453.3070571175859</v>
+        <v>363.2878394803</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>406.4452256901001</v>
+        <v>315.9189848143</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>215.2310854351843</v>
+        <v>255.9640569791001</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>394.1554723234453</v>
+        <v>341.841917389</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>175.3125349114104</v>
+        <v>125.4532711492</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>391.9892973292857</v>
+        <v>393.6005920530002</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>523.8096138166652</v>
+        <v>387.6501806566001</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>179.3360022846468</v>
+        <v>165.5575706259001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>198.5701548014928</v>
+        <v>297.1020854668002</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>542.2388559218793</v>
+        <v>115.3439481524</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>522.2262512650524</v>
+        <v>345.6260983369999</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>352.1879793750842</v>
+        <v>375.4792140880002</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>258.6832974639825</v>
+        <v>326.2496195340001</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>362.9405328385032</v>
+        <v>348.9400701813003</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>406.228060371008</v>
+        <v>356.0512147283002</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>373.0437058275857</v>
+        <v>333.8133631879999</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>351.6168634281389</v>
+        <v>103.3148218273</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>399.8357023589287</v>
+        <v>110.3973696432</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>199.7158973085811</v>
+        <v>338.9117010440001</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>243.6376826019931</v>
+        <v>268.2840103744002</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>468.6036455909682</v>
+        <v>382.522223615</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>524.995224361287</v>
+        <v>89.75007962453999</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>502.2327116348679</v>
+        <v>271.1755549002001</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>363.5139762082611</v>
+        <v>392.7126862910001</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>324.1239880667785</v>
+        <v>282.9604388125</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>303.3059770937095</v>
+        <v>272.9766024101</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>414.4770476964849</v>
+        <v>315.0059998756001</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>412.4909070716993</v>
+        <v>292.9613120498</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>415.3829200090706</v>
+        <v>381.0483518510001</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>613.282898092015</v>
+        <v>136.4651366364</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>129.4353296149511</v>
+        <v>116.4221783984</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>374.4832794379857</v>
+        <v>359.6758320753004</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>510.3745118323585</v>
+        <v>376.7218911171001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>521.1403316630552</v>
+        <v>343.9139266664001</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>589.3148468485625</v>
+        <v>276.8954094591001</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>308.8534586571483</v>
+        <v>350.6245474769998</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>408.4189588371692</v>
+        <v>128.9881492531</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>511.6397656524506</v>
+        <v>167.2476416824</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>595.6823876534737</v>
+        <v>386.1894039359998</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>518.9561181074507</v>
+        <v>356.0654233049999</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>409.9610878956755</v>
+        <v>387.9921532689997</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>526.504292590153</v>
+        <v>339.9264203239998</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>392.1367144376454</v>
+        <v>360.3810967069998</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>229.3371976254986</v>
+        <v>350.052163073</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>535.6764980456601</v>
+        <v>304.7523523001003</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>475.421715368462</v>
+        <v>355.4867942853</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>436.9134340193775</v>
+        <v>391.7210518662002</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>310.1305592575086</v>
+        <v>112.641695952</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>548.2934639714554</v>
+        <v>110.2350311812</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>214.0602316804357</v>
+        <v>375.8044702039998</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>458.5589212158586</v>
+        <v>261.8742631143</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>372.3052155919095</v>
+        <v>365.3091372889999</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>585.6166658762781</v>
+        <v>378.3282138163999</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>396.5861641004181</v>
+        <v>398.7965401583999</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>336.1372271820434</v>
+        <v>393.1043403883998</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>502.8198593281697</v>
+        <v>118.1869541787</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>444.668083372565</v>
+        <v>382.0187251903</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>500.7159415754792</v>
+        <v>271.0140769188002</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>438.2137094591268</v>
+        <v>300.4590968746001</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>506.9670684671459</v>
+        <v>387.571502257</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>289.2549420004391</v>
+        <v>383.017774572</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>336.2697911145948</v>
+        <v>389.809362387</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>289.2549420004391</v>
+        <v>286.0617843366001</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>237.8860557585677</v>
+        <v>280.5623164496</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>90.65606400742732</v>
+        <v>277.2203958136</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>104.2626289825493</v>
+        <v>279.5030500384</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>182.3226626328724</v>
+        <v>257.4372106342999</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>135.0615373055032</v>
+        <v>271.7111065362001</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>92.98996451764691</v>
+        <v>285.8176278986</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>109.6183240766685</v>
+        <v>289.3818793979</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>92.55049279699104</v>
+        <v>411.2148442469998</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>103.1431577901174</v>
+        <v>370.2647880240002</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>101.1432320934585</v>
+        <v>295.272459508</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>113.9691316083806</v>
+        <v>89.17367993377991</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>108.5181318752685</v>
+        <v>355.0911493964002</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>216.457362564201</v>
+        <v>364.8790723699998</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>87.06281161689532</v>
+        <v>337.2053436593001</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>92.44586866530038</v>
+        <v>372.2207278583002</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>111.7179710419116</v>
+        <v>369.8894449950001</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>95.48385990294952</v>
+        <v>287.1370458793</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>106.4037607695464</v>
+        <v>327.3100302435001</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>177.6965826284913</v>
+        <v>335.2613935278</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>86.51282602809201</v>
+        <v>372.0729369919998</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>86.08204494490168</v>
+        <v>328.2266826216</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>97.83884365318326</v>
+        <v>290.1779460032001</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>92.70211946784001</v>
+        <v>384.1965892739999</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>103.3187255221882</v>
+        <v>296.3223980728001</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>91.03847122986041</v>
+        <v>174.3128285667001</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>136.6706082753299</v>
+        <v>392.2840484248001</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>93.20326777746801</v>
+        <v>330.3459242932001</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>89.10150327032945</v>
+        <v>343.9184853080001</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>97.54607258515301</v>
+        <v>276.2845977821001</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>82.58750472576166</v>
+        <v>363.9470459370002</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>83.36911318813422</v>
+        <v>398.8745041099999</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>94.01880541953751</v>
+        <v>186.0646355653</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>328.7372224367712</v>
+        <v>328.8277013406002</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>101.975772851374</v>
+        <v>279.7150730081002</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>103.8400603942811</v>
+        <v>398.5938543426003</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>100.5976580482589</v>
+        <v>338.8975081186001</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>101.8401017330339</v>
+        <v>359.2136030524001</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>106.8527729297182</v>
+        <v>296.7487368563</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>86.48803381656087</v>
+        <v>335.4515239644001</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>318.8935190595147</v>
+        <v>312.8789847414</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>89.30070723211968</v>
+        <v>347.1837854090001</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>98.51654847546206</v>
+        <v>321.5660283079999</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>87.44765433210212</v>
+        <v>316.2354994362999</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>85.80404927021944</v>
+        <v>354.056528932</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>116.6265575114491</v>
+        <v>185.4101698728</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>103.7427678056951</v>
+        <v>353.4742645761</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>86.04514895715532</v>
+        <v>185.4101698728</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>134.7920304951674</v>
+        <v>298.3676342577001</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>113.9380935445056</v>
+        <v>169.98778445834</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>110.5478237928718</v>
+        <v>105.62155425513</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>126.5190844983243</v>
+        <v>123.99205329036</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>158.6238039775177</v>
+        <v>164.8593670655</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>316.6077312792833</v>
+        <v>74.79355556899998</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>125.6516348299403</v>
+        <v>85.18669515326002</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>109.4078175198119</v>
+        <v>113.27669354586</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>329.8190086997641</v>
+        <v>97.38597085112997</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>331.3945414411036</v>
+        <v>112.7851910276001</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>350.2715456381738</v>
+        <v>108.8564531887701</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>148.9232159688621</v>
+        <v>139.67630926236</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>210.6753030407694</v>
+        <v>176.4069355871</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>326.675776427657</v>
+        <v>196.60406824215</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>149.3717116668388</v>
+        <v>92.68646347570001</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>319.4934315485142</v>
+        <v>123.1088566994201</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>134.2727781841224</v>
+        <v>130.8820976586</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>130.4512421825443</v>
+        <v>115.0451977047001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>161.6802800854127</v>
+        <v>147.2482278099</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>210.3067817815294</v>
+        <v>220.90650774775</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>190.6996516185337</v>
+        <v>123.6740614361001</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>157.4841549304205</v>
+        <v>127.9262247654</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>92.82078362139151</v>
+        <v>127.4312293394</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>85.0318740714734</v>
+        <v>113.3535659248</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>101.2394163517717</v>
+        <v>116.5899389481</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>115.0992449180162</v>
+        <v>136.4034961253</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>113.4836988987104</v>
+        <v>136.9631669483999</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>130.0081093792667</v>
+        <v>122.27856716186</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>316.8828076042885</v>
+        <v>111.93160646446</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>96.47583930991912</v>
+        <v>111.1921031049</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>325.0958229109437</v>
+        <v>113.1144664522</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>359.0936155901308</v>
+        <v>104.9552382065001</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>77.53357523576244</v>
+        <v>113.9028844957</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>166.2360628770694</v>
+        <v>290.2334868505001</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>312.9830139467952</v>
+        <v>114.3467715945999</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>106.874871819471</v>
+        <v>121.3632728962001</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>97.54852067150439</v>
+        <v>120.7757047783</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>87.35554144435044</v>
+        <v>123.2391518702</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>331.4884652053942</v>
+        <v>138.7985002950001</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>338.4612001462942</v>
+        <v>117.6953724212</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>319.4903938226291</v>
+        <v>122.4034444219001</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>102.2040294244828</v>
+        <v>151.9931317036001</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>288.3786262289237</v>
+        <v>270.8415886266999</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>293.3055113129597</v>
+        <v>114.443211008</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>106.7519826442517</v>
+        <v>115.6110294994</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>86.97531987132307</v>
+        <v>70.56505893690004</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>315.9509834432799</v>
+        <v>120.7620978713</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>86.32274391514004</v>
+        <v>110.30984377806</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>347.1769907870332</v>
+        <v>128.0023435393</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>344.0606439699252</v>
+        <v>308.3966202996999</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>70.44429309609993</v>
+        <v>126.9907725696001</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>346.5113019170378</v>
+        <v>157.1362958056001</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>76.41807157480007</v>
+        <v>103.7113949944</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>87.13189789385675</v>
+        <v>131.4296092915</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>354.1917602920593</v>
+        <v>96.10881326331997</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>345.0430232099474</v>
+        <v>140.7081874992</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>342.9765293314607</v>
+        <v>243.0403748166001</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>342.5558996163617</v>
+        <v>122.4402951504999</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>65.24231078978946</v>
+        <v>137.9463864507</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>72.99952534978564</v>
+        <v>253.0309692809599</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>356.6766422712798</v>
+        <v>167.5116331648</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>114.777825020453</v>
+        <v>281.8771236382997</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>330.6969693350133</v>
+        <v>194.77154185709</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>126.6892606273899</v>
+        <v>149.3337888836</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>104.6932136916614</v>
+        <v>137.3461119362</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>94.3279134500834</v>
+        <v>201.7465893968</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>102.6256262974096</v>
+        <v>154.0730213898</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>92.26796672710381</v>
+        <v>267.7117839301599</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>119.3790574652201</v>
+        <v>112.4205176366</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>131.6476164818894</v>
+        <v>143.6448945925</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>122.4367077079925</v>
+        <v>173.2364932792</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>323.0157060377547</v>
+        <v>196.4617252826</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>119.1428106022152</v>
+        <v>131.0795350505</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>142.4996515922549</v>
+        <v>99.99446355109998</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>353.7358355091158</v>
+        <v>100.5055219395</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>88.09748555136481</v>
+        <v>83.30857497020006</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>115.6859023583625</v>
+        <v>130.8508902672</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>114.6770611368487</v>
+        <v>75.52239848160004</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>314.2861769378757</v>
+        <v>104.689546032</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>362.5256581369323</v>
+        <v>117.4840083681</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>90.02041370714397</v>
+        <v>151.6276970553</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>330.5970330343143</v>
+        <v>250.5848276462</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>368.7251208264879</v>
+        <v>119.4313361175</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>352.4668869331761</v>
+        <v>224.5114853738999</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>335.6604281508779</v>
+        <v>278.9311252924599</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>335.6604281508779</v>
+        <v>99.46089921470008</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>351.8377582265413</v>
+        <v>147.9570046318</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>364.2521240941642</v>
+        <v>157.89935377099</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>108.7957459009989</v>
+        <v>133.1740527626999</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>329.9163578826262</v>
+        <v>134.9831941915001</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>317.9177331961595</v>
+        <v>136.8073388618</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>317.5129235146814</v>
+        <v>272.4026978992999</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>348.3666036726079</v>
+        <v>302.0437477813999</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>343.0638003587985</v>
+        <v>271.4222879031</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>329.8397247456461</v>
+        <v>144.2709919134</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>324.3086932187671</v>
+        <v>95.70653056340996</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>360.7353677899253</v>
+        <v>246.0149102778001</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>326.1028055477004</v>
+        <v>105.6584365334</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>340.7280999356037</v>
+        <v>72.58992833303002</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>347.4947060074942</v>
+        <v>271.9430531957998</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>102.443057957493</v>
+        <v>88.71876325162003</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>316.9939600551172</v>
+        <v>288.2492174101</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>88.47451051696007</v>
+        <v>288.9406151801998</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>320.8564917213566</v>
+        <v>124.3432637252001</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>348.6034952664941</v>
+        <v>202.2280386742</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>327.6772610597889</v>
+        <v>110.9816863046</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>315.5742925441262</v>
+        <v>141.4617193122</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>119.1542415220163</v>
+        <v>207.8311958565999</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>115.762561168529</v>
+        <v>289.618899318</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>319.33931944805</v>
+        <v>278.6902420249</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>317.5843483370834</v>
+        <v>204.9249497064</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>339.3573636034134</v>
+        <v>91.36129274290005</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>318.7573097852052</v>
+        <v>85.56203418310004</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>240.4531646164913</v>
+        <v>279.5142433833</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>79.73873907148659</v>
+        <v>87.32648243120002</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>100.3538401603759</v>
+        <v>187.9090319636299</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>336.7155669284123</v>
+        <v>141.9148161333</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>339.8624324566871</v>
+        <v>127.263305442</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>337.1717654281443</v>
+        <v>130.739593629</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>334.9867097594408</v>
+        <v>144.8754519641001</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>360.6766388679409</v>
+        <v>133.9569375974</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>341.9542758851634</v>
+        <v>137.1074402667</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>333.9921094244777</v>
+        <v>107.9982259625</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>333.9857870548777</v>
+        <v>140.1063943847</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>311.2973356844693</v>
+        <v>323.8918585983999</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>89.4824866117648</v>
+        <v>107.67992259473</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>92.6594028335859</v>
+        <v>119.5175822058</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>344.6003678509418</v>
+        <v>199.6769660875</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>368.4134799407802</v>
+        <v>93.95331279105999</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>113.1966876885138</v>
+        <v>123.89180846746</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>333.4248059537266</v>
+        <v>141.7822049647</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>334.8891196194933</v>
+        <v>163.2166403525</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>343.5651380477611</v>
+        <v>229.3794208006998</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>352.4478693565278</v>
+        <v>90.14875251790004</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>324.6014109645333</v>
+        <v>296.9382259996</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>335.4501007206444</v>
+        <v>359.5001307668998</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>336.7670635260004</v>
+        <v>323.3943392474999</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>370.4741489185005</v>
+        <v>341.9084421156997</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>102.8511200518105</v>
+        <v>310.1955059529999</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>83.13052069246454</v>
+        <v>342.7529734232598</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>327.7518158842293</v>
+        <v>337.0078441881</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>85.38123592015064</v>
+        <v>126.5913233143</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>99.12021914724367</v>
+        <v>275.4478406843999</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>98.40563474373795</v>
+        <v>272.3523006730999</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>98.05522903281731</v>
+        <v>179.5352147869</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>102.5916905318398</v>
+        <v>338.8687118795</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>98.05522903281731</v>
+        <v>329.3802977106999</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>94.77753269064587</v>
+        <v>273.2969733995999</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>95.62139778950937</v>
+        <v>259.9339031260999</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>86.2876677492518</v>
+        <v>310.9761805133998</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>103.3610367183646</v>
+        <v>251.8790153071999</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>88.861776307111</v>
+        <v>315.6990649739998</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>348.656697764242</v>
+        <v>322.3123152070997</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>332.1721873389103</v>
+        <v>328.8251630258</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>338.7454633276999</v>
+        <v>109.7427051749</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>105.9980703987949</v>
+        <v>154.98071189723</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>96.51327421685345</v>
+        <v>106.1781099476</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>372.9690892950238</v>
+        <v>191.6293887486</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>357.7848473488071</v>
+        <v>286.6919927119</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>368.9331464403603</v>
+        <v>154.06946534068</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>96.83404601009876</v>
+        <v>247.6776653347999</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>91.0848462487218</v>
+        <v>149.6918553095001</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>87.91075930682399</v>
+        <v>108.8449984591</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>346.2362305165921</v>
+        <v>89.26279079768003</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>102.2149297150299</v>
+        <v>178.74217316049</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>383.634327689642</v>
+        <v>269.7375677064999</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>350.0048361245309</v>
+        <v>110.94195335819</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>356.1140845078166</v>
+        <v>120.2346160729</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>352.7404056811111</v>
+        <v>80.21138336650004</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>354.2021751496347</v>
+        <v>136.48009640978</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>364.3148326307111</v>
+        <v>274.7163743359999</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>397.546570155858</v>
+        <v>293.2952984427998</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>431.5926622649336</v>
+        <v>276.5696577483998</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>343.3376931385999</v>
+        <v>88.14448506100007</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>353.4704283271976</v>
+        <v>176.9521171421</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>373.5768519712611</v>
+        <v>360.9740556248999</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>358.5950033529452</v>
+        <v>250.5497822173998</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>129.9846824153111</v>
+        <v>180.0438160404</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>120.5758312319181</v>
+        <v>299.1566981603999</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>378.2070092027919</v>
+        <v>162.2814302894</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>325.2075750766747</v>
+        <v>87.5668586071</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>336.5972782550253</v>
+        <v>90.12779792660004</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>147.9741508309999</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>243.0748473300998</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>115.2646991318999</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>266.9176753592</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>239.6631426812</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>146.9624424724</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>319.0140925626998</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>92.00762989318997</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>237.5149372100999</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>275.8420480656998</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>319.5149832630999</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>106.7820604588</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>84.27562537922003</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>288.8116161597999</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>94.49762063479997</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>81.13106381670002</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>100.0918904733</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>111.4728459973</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>117.9748261877</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>110.3103078358</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>124.2664183836</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>122.0666290753001</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>94.61356610177998</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>130.8146545383</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>106.06920619855</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>150.34438426999</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>173.071539074</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>250.3439064583999</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>106.2189583105999</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>106.5619515941</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>107.8074455323</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>297.5383287946</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>284.3827993553</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>217.166103682</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>106.0544424366999</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>97.79056098347999</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>105.3267260956</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>266.8086322313998</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>105.5722145130001</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>288.9978476355</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>269.9181225895</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>186.6995422240999</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>280.4745282237998</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>287.0680329012998</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>341.8584408939998</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>357.2580442957998</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>368.3996022009997</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>270.4860810669999</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>257.0183745346</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>268.8156204919998</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>215.4594613461999</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>122.8956092661</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>124.2522677174</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>387.6460092015998</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>181.9950323067999</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>323.0010067205998</v>
       </c>
     </row>
   </sheetData>

--- a/Submissions/submission_file.xlsx
+++ b/Submissions/submission_file.xlsx
@@ -442,2002 +442,2002 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>206.8474616413</v>
+        <v>211.8869647121496</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>200.0566853996</v>
+        <v>192.57950858435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>215.9051087807</v>
+        <v>216.3507872031769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>212.1287808653</v>
+        <v>220.5676845327784</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>270.6253871788</v>
+        <v>244.9599599328641</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>221.0352060501</v>
+        <v>215.9785621302261</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>93.2118810043</v>
+        <v>95.78854280338862</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>226.3766990908</v>
+        <v>233.9474581648736</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>197.7377343101999</v>
+        <v>201.3893212796055</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>196.2619120449999</v>
+        <v>207.7587946094983</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>248.1615743554</v>
+        <v>215.6113057604452</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>225.4624607532</v>
+        <v>231.2839438313432</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>78.30142372218997</v>
+        <v>97.16463006614492</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>207.1496034274099</v>
+        <v>203.7845132859088</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>190.8752719168</v>
+        <v>220.2361083295207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>166.8935487527999</v>
+        <v>172.9195467951726</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>76.32859589778002</v>
+        <v>88.33102861620091</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>263.3060647108001</v>
+        <v>234.910986336508</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>141.01409251816</v>
+        <v>152.817126801157</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>256.6606049588</v>
+        <v>256.4980350477655</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>86.22160231849999</v>
+        <v>99.76376880408939</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>250.1468094867</v>
+        <v>263.0122906774601</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>253.7300378529998</v>
+        <v>281.3460882162259</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>235.6132944112001</v>
+        <v>252.7941222569369</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>285.4670856686</v>
+        <v>297.0309851761439</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>110.9011852007</v>
+        <v>111.6524759700064</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>212.9627929141</v>
+        <v>194.0227511960214</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>313.275263523</v>
+        <v>325.6706392315339</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>279.1484759589999</v>
+        <v>282.5015671785817</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>298.3075562875</v>
+        <v>301.8930891468163</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>210.1372224928</v>
+        <v>211.4456719219298</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>157.4264169114</v>
+        <v>182.1417269581464</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>179.1676037207999</v>
+        <v>199.8483794135622</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>158.8694623029</v>
+        <v>173.4649217068601</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>310.6736939132</v>
+        <v>291.7101219243885</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>236.740356</v>
+        <v>226.6062957771684</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>215.8768677082</v>
+        <v>210.5406725038146</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>246.3482863010999</v>
+        <v>243.9567182548891</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>263.8444881052999</v>
+        <v>242.4827420361351</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>309.5650226210001</v>
+        <v>312.4745655885384</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>356.8906596412999</v>
+        <v>354.7723783176932</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>410.0627630370002</v>
+        <v>370.2981205799741</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>362.4137911521003</v>
+        <v>305.631725474932</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>357.1877290443002</v>
+        <v>327.2214587663771</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>335.0062392832001</v>
+        <v>307.5830008566782</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>337.2595498433</v>
+        <v>302.7364969796947</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>408.9919570160001</v>
+        <v>402.9268364285469</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>341.6843668100001</v>
+        <v>344.1181895872163</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>292.1343165889</v>
+        <v>295.7568252073104</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>378.4098977390001</v>
+        <v>373.0423626245855</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>348.5215157300001</v>
+        <v>351.2142760611633</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>418.0349822306001</v>
+        <v>435.1989084320953</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>363.2878394803</v>
+        <v>361.671334580788</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>315.9189848143</v>
+        <v>282.3493016392122</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>255.9640569791001</v>
+        <v>269.3589965705881</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>341.841917389</v>
+        <v>356.441555513258</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>125.4532711492</v>
+        <v>148.2056084725274</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>393.6005920530002</v>
+        <v>338.1696368772136</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>387.6501806566001</v>
+        <v>333.3099480785482</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>165.5575706259001</v>
+        <v>173.9601903223722</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>297.1020854668002</v>
+        <v>292.4957199478612</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>115.3439481524</v>
+        <v>131.6428059987287</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>345.6260983369999</v>
+        <v>355.2098920350578</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>375.4792140880002</v>
+        <v>327.384698919683</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>326.2496195340001</v>
+        <v>301.5379404754859</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>348.9400701813003</v>
+        <v>322.1183360713843</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>356.0512147283002</v>
+        <v>357.5999241763209</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>333.8133631879999</v>
+        <v>325.3400571315896</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>103.3148218273</v>
+        <v>115.941524764634</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>110.3973696432</v>
+        <v>113.672154443401</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>338.9117010440001</v>
+        <v>329.6385495154713</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>268.2840103744002</v>
+        <v>266.658484162293</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>382.522223615</v>
+        <v>350.5486420779747</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>89.75007962453999</v>
+        <v>95.99981519226971</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>271.1755549002001</v>
+        <v>290.0078921997485</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>392.7126862910001</v>
+        <v>395.3652113275922</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>282.9604388125</v>
+        <v>275.6369657721682</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>272.9766024101</v>
+        <v>294.2963411065601</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>315.0059998756001</v>
+        <v>300.9125884878634</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>292.9613120498</v>
+        <v>293.8403836007201</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>381.0483518510001</v>
+        <v>377.1346777177162</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>136.4651366364</v>
+        <v>150.4475694924697</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>116.4221783984</v>
+        <v>126.5205321144781</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>359.6758320753004</v>
+        <v>315.4938360627604</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>376.7218911171001</v>
+        <v>328.7017730235062</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>343.9139266664001</v>
+        <v>313.7024878345759</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>276.8954094591001</v>
+        <v>270.3275839500282</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>350.6245474769998</v>
+        <v>371.3446903818585</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>128.9881492531</v>
+        <v>138.0363095281868</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>167.2476416824</v>
+        <v>188.7241038936519</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>386.1894039359998</v>
+        <v>406.6962296690565</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>356.0654233049999</v>
+        <v>358.9434000975122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>387.9921532689997</v>
+        <v>406.0897162718663</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>339.9264203239998</v>
+        <v>371.444483437519</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>360.3810967069998</v>
+        <v>370.2642831678621</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>350.052163073</v>
+        <v>329.5024357948503</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>304.7523523001003</v>
+        <v>282.5280871582348</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>355.4867942853</v>
+        <v>323.5875120029728</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>391.7210518662002</v>
+        <v>355.6645645342543</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>112.641695952</v>
+        <v>132.211475313615</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>110.2350311812</v>
+        <v>115.492797298882</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>375.8044702039998</v>
+        <v>387.2165339814274</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>261.8742631143</v>
+        <v>279.1653557881202</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>365.3091372889999</v>
+        <v>368.8957446375007</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>378.3282138163999</v>
+        <v>386.5538912734226</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>398.7965401583999</v>
+        <v>391.3513628283332</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>393.1043403883998</v>
+        <v>394.8042484428022</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>118.1869541787</v>
+        <v>113.7428837435131</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>382.0187251903</v>
+        <v>378.2800682133186</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>271.0140769188002</v>
+        <v>243.631538044083</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>300.4590968746001</v>
+        <v>319.6642761194209</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>387.571502257</v>
+        <v>408.273701497349</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>383.017774572</v>
+        <v>394.3839168143275</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>389.809362387</v>
+        <v>401.7493752344776</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>286.0617843366001</v>
+        <v>304.939633393259</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>280.5623164496</v>
+        <v>286.1334476091587</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>277.2203958136</v>
+        <v>294.1779772228865</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>279.5030500384</v>
+        <v>260.2092536632619</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>257.4372106342999</v>
+        <v>267.1354914148169</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>271.7111065362001</v>
+        <v>257.093562743509</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>285.8176278986</v>
+        <v>324.2925744511541</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>289.3818793979</v>
+        <v>312.1441182177459</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>411.2148442469998</v>
+        <v>396.5679259182559</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>370.2647880240002</v>
+        <v>343.6023691465688</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>295.272459508</v>
+        <v>271.1868093634202</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>89.17367993377991</v>
+        <v>83.01617664178225</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>355.0911493964002</v>
+        <v>334.5913491346611</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>364.8790723699998</v>
+        <v>366.1008047324689</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>337.2053436593001</v>
+        <v>313.2351797566302</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>372.2207278583002</v>
+        <v>387.0233160778891</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>369.8894449950001</v>
+        <v>330.7416018188354</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>287.1370458793</v>
+        <v>294.5115977405091</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>327.3100302435001</v>
+        <v>315.7866404192785</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>335.2613935278</v>
+        <v>324.1391152184655</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>372.0729369919998</v>
+        <v>382.9690780733929</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>328.2266826216</v>
+        <v>320.0285750869598</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>290.1779460032001</v>
+        <v>299.0090983136786</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>384.1965892739999</v>
+        <v>371.3089731538889</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>296.3223980728001</v>
+        <v>284.6684286433082</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>174.3128285667001</v>
+        <v>176.8730700232782</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>392.2840484248001</v>
+        <v>347.535144863015</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>330.3459242932001</v>
+        <v>313.0961557368865</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>343.9184853080001</v>
+        <v>356.4809118104097</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>276.2845977821001</v>
+        <v>262.792248747769</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>363.9470459370002</v>
+        <v>331.12376158897</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>398.8745041099999</v>
+        <v>388.9626341216582</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>186.0646355653</v>
+        <v>198.4827623631699</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>328.8277013406002</v>
+        <v>306.9333083960142</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>279.7150730081002</v>
+        <v>262.1794781530693</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>398.5938543426003</v>
+        <v>360.2655988040858</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>338.8975081186001</v>
+        <v>304.4166389144087</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>359.2136030524001</v>
+        <v>374.8844214546593</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>296.7487368563</v>
+        <v>305.6862329418003</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>335.4515239644001</v>
+        <v>340.4901374042003</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>312.8789847414</v>
+        <v>315.499323821036</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>347.1837854090001</v>
+        <v>352.646807452678</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>321.5660283079999</v>
+        <v>332.8595743358974</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>316.2354994362999</v>
+        <v>320.117782651567</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>354.056528932</v>
+        <v>356.8508622702363</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>185.4101698728</v>
+        <v>177.3227826062293</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>353.4742645761</v>
+        <v>330.8264017085519</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>185.4101698728</v>
+        <v>177.3227826062293</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>298.3676342577001</v>
+        <v>310.0202160132409</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>169.98778445834</v>
+        <v>170.2542824707274</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>105.62155425513</v>
+        <v>99.41764552384781</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>123.99205329036</v>
+        <v>115.9623826990871</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>164.8593670655</v>
+        <v>180.8072107260763</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>74.79355556899998</v>
+        <v>92.51639744879209</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>85.18669515326002</v>
+        <v>82.73621295646812</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>113.27669354586</v>
+        <v>110.5239840447891</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>97.38597085112997</v>
+        <v>110.3044703643706</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>112.7851910276001</v>
+        <v>116.5402296408498</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>108.8564531887701</v>
+        <v>95.67172320755911</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>139.67630926236</v>
+        <v>115.7684379303576</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>176.4069355871</v>
+        <v>164.4083333331677</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>196.60406824215</v>
+        <v>178.3502080424354</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>92.68646347570001</v>
+        <v>89.33911846884067</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>123.1088566994201</v>
+        <v>133.0356641271939</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>130.8820976586</v>
+        <v>135.880958756151</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>115.0451977047001</v>
+        <v>116.536366508505</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>147.2482278099</v>
+        <v>135.6522489884364</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>220.90650774775</v>
+        <v>209.261204787211</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>123.6740614361001</v>
+        <v>136.8433806768573</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>127.9262247654</v>
+        <v>134.7899192483559</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>127.4312293394</v>
+        <v>125.7819129559164</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>113.3535659248</v>
+        <v>118.4678298694896</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>116.5899389481</v>
+        <v>139.3106192253013</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>136.4034961253</v>
+        <v>146.8375288008774</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>136.9631669483999</v>
+        <v>154.6142375128508</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>122.27856716186</v>
+        <v>119.6107356448008</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>111.93160646446</v>
+        <v>111.9348764216229</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>111.1921031049</v>
+        <v>115.102510661176</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>113.1144664522</v>
+        <v>121.2951148641053</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>104.9552382065001</v>
+        <v>109.2750741512716</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>113.9028844957</v>
+        <v>121.1691648517535</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>290.2334868505001</v>
+        <v>299.8946618545006</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>114.3467715945999</v>
+        <v>120.0037732856728</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>121.3632728962001</v>
+        <v>113.8775368290756</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>120.7757047783</v>
+        <v>115.6055598276327</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>123.2391518702</v>
+        <v>117.1316474707879</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>138.7985002950001</v>
+        <v>139.5527119259453</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>117.6953724212</v>
+        <v>127.5607739426376</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>122.4034444219001</v>
+        <v>135.812659440699</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>151.9931317036001</v>
+        <v>137.9821879281942</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>270.8415886266999</v>
+        <v>262.9689380322288</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>114.443211008</v>
+        <v>117.5448027722812</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>115.6110294994</v>
+        <v>121.5503166418328</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>70.56505893690004</v>
+        <v>68.292573290704</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>120.7620978713</v>
+        <v>124.9027515954525</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>110.30984377806</v>
+        <v>108.7087581644072</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>128.0023435393</v>
+        <v>136.1951091572347</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>308.3966202996999</v>
+        <v>277.8832969786372</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>126.9907725696001</v>
+        <v>129.7755915492917</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>157.1362958056001</v>
+        <v>161.6008727501617</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>103.7113949944</v>
+        <v>112.5642290400884</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>131.4296092915</v>
+        <v>145.605477925841</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>96.10881326331997</v>
+        <v>108.6118737460193</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>140.7081874992</v>
+        <v>136.080355957698</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>243.0403748166001</v>
+        <v>228.6349027757217</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>122.4402951504999</v>
+        <v>120.0109171841469</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>137.9463864507</v>
+        <v>131.6463742891735</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>253.0309692809599</v>
+        <v>242.1665087305227</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>167.5116331648</v>
+        <v>161.0346430916791</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>281.8771236382997</v>
+        <v>246.1962772432166</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>194.77154185709</v>
+        <v>236.4644507424069</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>149.3337888836</v>
+        <v>141.1120918512261</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>137.3461119362</v>
+        <v>112.3471397828222</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>201.7465893968</v>
+        <v>232.471399962044</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>154.0730213898</v>
+        <v>133.3786239076847</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>267.7117839301599</v>
+        <v>240.6502797313869</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>112.4205176366</v>
+        <v>116.7252303894821</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>143.6448945925</v>
+        <v>146.3923046435388</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>173.2364932792</v>
+        <v>167.8140863998164</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>196.4617252826</v>
+        <v>161.6334931848181</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>131.0795350505</v>
+        <v>136.8054147049755</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>99.99446355109998</v>
+        <v>103.6166681679952</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>100.5055219395</v>
+        <v>100.4486392254853</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>83.30857497020006</v>
+        <v>98.88190826603575</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>130.8508902672</v>
+        <v>133.158477274199</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>75.52239848160004</v>
+        <v>106.2744420760948</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>104.689546032</v>
+        <v>108.4049300981745</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>117.4840083681</v>
+        <v>119.4415462951089</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>151.6276970553</v>
+        <v>150.16361090571</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>250.5848276462</v>
+        <v>248.9863265665985</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>119.4313361175</v>
+        <v>118.9740054779101</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>224.5114853738999</v>
+        <v>222.9563704516695</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>278.9311252924599</v>
+        <v>255.5170238481547</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>99.46089921470008</v>
+        <v>120.6155054234424</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>147.9570046318</v>
+        <v>155.630423777799</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>157.89935377099</v>
+        <v>158.9340107666033</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>133.1740527626999</v>
+        <v>132.0105076277516</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>134.9831941915001</v>
+        <v>142.3928045482711</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>136.8073388618</v>
+        <v>150.9018021295479</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>272.4026978992999</v>
+        <v>270.2555857449501</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>302.0437477813999</v>
+        <v>279.4421585606333</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>271.4222879031</v>
+        <v>259.5910009788352</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>144.2709919134</v>
+        <v>138.9150467450053</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>95.70653056340996</v>
+        <v>85.57766724532438</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>246.0149102778001</v>
+        <v>216.5575044308106</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>105.6584365334</v>
+        <v>117.4660706420712</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>72.58992833303002</v>
+        <v>82.41046478299488</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>271.9430531957998</v>
+        <v>248.1704762319607</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>88.71876325162003</v>
+        <v>96.43372138918613</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>288.2492174101</v>
+        <v>271.9102022433366</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>288.9406151801998</v>
+        <v>259.2430989879755</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>124.3432637252001</v>
+        <v>125.4643861226839</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>202.2280386742</v>
+        <v>222.1295736580826</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>110.9816863046</v>
+        <v>129.854347533599</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>141.4617193122</v>
+        <v>144.1045325514303</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>207.8311958565999</v>
+        <v>243.8805774823545</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>289.618899318</v>
+        <v>273.6862290689533</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>278.6902420249</v>
+        <v>283.3978856927404</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>204.9249497064</v>
+        <v>243.5689653496824</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>91.36129274290005</v>
+        <v>108.5841604563611</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>85.56203418310004</v>
+        <v>99.18156492782784</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>279.5142433833</v>
+        <v>271.981455176007</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>87.32648243120002</v>
+        <v>86.5353541977077</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>187.9090319636299</v>
+        <v>211.5403893966129</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>141.9148161333</v>
+        <v>146.6062137703457</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>127.263305442</v>
+        <v>141.4829953787522</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>130.739593629</v>
+        <v>125.8952595569742</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>144.8754519641001</v>
+        <v>130.3959501358629</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>133.9569375974</v>
+        <v>140.1032417133674</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>137.1074402667</v>
+        <v>134.5150194666761</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>107.9982259625</v>
+        <v>119.6837982186652</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>140.1063943847</v>
+        <v>144.5433243655514</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>323.8918585983999</v>
+        <v>289.1374718159436</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>107.67992259473</v>
+        <v>115.2700929917379</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>119.5175822058</v>
+        <v>123.9841377347901</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>199.6769660875</v>
+        <v>246.8853751221424</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>93.95331279105999</v>
+        <v>108.9495390122717</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>123.89180846746</v>
+        <v>132.0411434045363</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>141.7822049647</v>
+        <v>143.1513236441857</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>163.2166403525</v>
+        <v>145.3286835464988</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>229.3794208006998</v>
+        <v>237.1204331925318</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>90.14875251790004</v>
+        <v>101.6096127253109</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>296.9382259996</v>
+        <v>307.7746108165844</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>359.5001307668998</v>
+        <v>371.4781193433054</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>323.3943392474999</v>
+        <v>318.134204087933</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>341.9084421156997</v>
+        <v>331.5610864599519</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>310.1955059529999</v>
+        <v>307.1940450451164</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>342.7529734232598</v>
+        <v>295.3790384946096</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>337.0078441881</v>
+        <v>345.316991269912</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>126.5913233143</v>
+        <v>131.512026202249</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>275.4478406843999</v>
+        <v>253.6511967360986</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>272.3523006730999</v>
+        <v>253.677517522635</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>179.5352147869</v>
+        <v>205.6915678155264</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>338.8687118795</v>
+        <v>349.6021416325511</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>329.3802977106999</v>
+        <v>339.033151412798</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>273.2969733995999</v>
+        <v>294.3758614571819</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>259.9339031260999</v>
+        <v>256.5899672695013</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>310.9761805133998</v>
+        <v>333.8072991932748</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>251.8790153071999</v>
+        <v>267.0400067490934</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>315.6990649739998</v>
+        <v>322.5089906002596</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>322.3123152070997</v>
+        <v>334.6104086238855</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>328.8251630258</v>
+        <v>348.9078555713525</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>109.7427051749</v>
+        <v>129.8411930297083</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>154.98071189723</v>
+        <v>162.1712490453859</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>106.1781099476</v>
+        <v>120.6867060801852</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>191.6293887486</v>
+        <v>160.1120747926453</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>286.6919927119</v>
+        <v>317.0929569321764</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>154.06946534068</v>
+        <v>151.6477406017787</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>247.6776653347999</v>
+        <v>246.8888953279174</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>149.6918553095001</v>
+        <v>141.9571051233667</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>108.8449984591</v>
+        <v>107.3188882505995</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>89.26279079768003</v>
+        <v>79.21676969892368</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>178.74217316049</v>
+        <v>183.6221258021909</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>269.7375677064999</v>
+        <v>262.8298802417997</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>110.94195335819</v>
+        <v>109.8820087453055</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>120.2346160729</v>
+        <v>124.130921359874</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>80.21138336650004</v>
+        <v>92.42859118005227</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>136.48009640978</v>
+        <v>132.6941244563166</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>274.7163743359999</v>
+        <v>269.4716554612243</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>293.2952984427998</v>
+        <v>265.2763850654522</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>276.5696577483998</v>
+        <v>256.1087652514054</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>88.14448506100007</v>
+        <v>99.40652781778198</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>176.9521171421</v>
+        <v>162.2502904993659</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>360.9740556248999</v>
+        <v>376.230579589403</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>250.5497822173998</v>
+        <v>260.3834851480778</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>180.0438160404</v>
+        <v>204.7632678636964</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>299.1566981603999</v>
+        <v>271.6857524502378</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>162.2814302894</v>
+        <v>140.5022246505403</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>87.5668586071</v>
+        <v>89.36992500644757</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>90.12779792660004</v>
+        <v>96.34183899062184</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>147.9741508309999</v>
+        <v>165.0749366073724</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>243.0748473300998</v>
+        <v>242.6735228977837</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>115.2646991318999</v>
+        <v>120.8490066527739</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>266.9176753592</v>
+        <v>256.9005554776051</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>239.6631426812</v>
+        <v>245.080464975043</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>146.9624424724</v>
+        <v>150.2692941284987</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>319.0140925626998</v>
+        <v>284.2823576601728</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>92.00762989318997</v>
+        <v>84.89700297706962</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>237.5149372100999</v>
+        <v>242.9025792161704</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>275.8420480656998</v>
+        <v>264.4075364037898</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>319.5149832630999</v>
+        <v>329.5773765656488</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>106.7820604588</v>
+        <v>113.0201844654426</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>84.27562537922003</v>
+        <v>84.51934052095936</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>288.8116161597999</v>
+        <v>277.7147842561117</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>94.49762063479997</v>
+        <v>99.73741359088774</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>81.13106381670002</v>
+        <v>86.16155767279064</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>100.0918904733</v>
+        <v>100.9630350078169</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>111.4728459973</v>
+        <v>105.3624987834596</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>117.9748261877</v>
+        <v>118.9821209466336</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>110.3103078358</v>
+        <v>102.6240057898227</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>124.2664183836</v>
+        <v>122.9749288886474</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>122.0666290753001</v>
+        <v>120.9050537782574</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>94.61356610177998</v>
+        <v>110.0311190520199</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>130.8146545383</v>
+        <v>146.5515051299276</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>106.06920619855</v>
+        <v>116.2650304520003</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>150.34438426999</v>
+        <v>163.7669169761</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>173.071539074</v>
+        <v>156.944149676164</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>250.3439064583999</v>
+        <v>266.9633445977992</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>106.2189583105999</v>
+        <v>106.3371239341113</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>106.5619515941</v>
+        <v>101.1751096939296</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>107.8074455323</v>
+        <v>108.1699454125235</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>297.5383287946</v>
+        <v>322.2212988625413</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>284.3827993553</v>
+        <v>314.4141428065222</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>217.166103682</v>
+        <v>244.9222682955142</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>106.0544424366999</v>
+        <v>120.1969169994213</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>97.79056098347999</v>
+        <v>105.0782024877785</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>105.3267260956</v>
+        <v>121.7520127152208</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>266.8086322313998</v>
+        <v>254.9066449200093</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>105.5722145130001</v>
+        <v>108.5817411329112</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>288.9978476355</v>
+        <v>302.8990548202036</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>269.9181225895</v>
+        <v>274.0468602836525</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>186.6995422240999</v>
+        <v>233.3379419331889</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>280.4745282237998</v>
+        <v>256.8447927252497</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>287.0680329012998</v>
+        <v>267.0327882644101</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>341.8584408939998</v>
+        <v>310.5953785678935</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>357.2580442957998</v>
+        <v>354.3681604344558</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>368.3996022009997</v>
+        <v>360.5118634493352</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>270.4860810669999</v>
+        <v>281.0965522850003</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>257.0183745346</v>
+        <v>266.9991167295442</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>268.8156204919998</v>
+        <v>275.745017205381</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>215.4594613461999</v>
+        <v>247.8358634094649</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>122.8956092661</v>
+        <v>114.2620271434769</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>124.2522677174</v>
+        <v>127.8095493723097</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>387.6460092015998</v>
+        <v>387.3681699346045</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>181.9950323067999</v>
+        <v>155.385086320724</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>323.0010067205998</v>
+        <v>304.4707929504306</v>
       </c>
     </row>
   </sheetData>
